--- a/public/data/soil/soil_table_south_africa.xlsx
+++ b/public/data/soil/soil_table_south_africa.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7611.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5725.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2525.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2610.3</v>
       </c>
       <c r="H3" t="n">
         <v>2.625</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>420.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>150.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>64.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1400.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10686</v>
       </c>
       <c r="H5" t="n">
         <v>2.395</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>369.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7707.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5506</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="H8" t="n">
         <v>3.763</v>
@@ -1042,16 +1042,16 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>101.9</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1455</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2588.3</v>
       </c>
       <c r="H9" t="n">
         <v>21.605</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>469897.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>362469.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>48877.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>115003.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>463492.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2389.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>90894.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4269.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>8543.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>53586.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34517.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9648.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>48315.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>62429.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2476.6</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65689.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>18099.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>16255.3</v>
       </c>
       <c r="H20" t="n">
         <v>2.202</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>12441.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6178</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>30749.9</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21676.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1334.9</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>18911.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>12676.5</v>
       </c>
       <c r="H23" t="n">
         <v>7.01</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>36478.9</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5748.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4321.7</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>21388.6</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17748.3</v>
       </c>
       <c r="H25" t="n">
         <v>56.053</v>
@@ -1637,16 +1637,16 @@
         <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3831.7</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6455.6</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>66297.1</v>
       </c>
       <c r="H26" t="n">
         <v>13.693</v>
@@ -1672,16 +1672,16 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>9842</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>38958.3</v>
       </c>
       <c r="H27" t="n">
         <v>1.932</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32781.3</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>42840.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>11251.9</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>39959.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>50561.8</v>
       </c>
       <c r="H29" t="n">
         <v>53.922</v>
@@ -1777,16 +1777,16 @@
         <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1766.7</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>10062.4</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>58985.6</v>
       </c>
       <c r="H30" t="n">
         <v>8.785</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24907.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>310.9</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4422.6</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>39045.5</v>
       </c>
       <c r="H32" t="n">
         <v>4.981</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>10505.4</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>79912.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1917,16 +1917,16 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2370.2</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>21285.2</v>
       </c>
       <c r="H34" t="n">
         <v>1.917</v>
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>13479.6</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>55894</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1987,16 +1987,16 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>8518.4</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32875.3</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>77411.7</v>
       </c>
       <c r="H36" t="n">
         <v>15.784</v>
@@ -2022,16 +2022,16 @@
         <v>71</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2567.7</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>118580.3</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>355049.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.941</v>
@@ -2057,16 +2057,16 @@
         <v>72</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>120450.9</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>120916.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7434.7</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>138415.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>253959.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>160176.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1829.6</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>257279.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>71920</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>45553.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>27639.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>60316</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>58799.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>551.5</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>54015.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2443.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>17312.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2512,16 +2512,16 @@
         <v>88</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2110.1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>42728.5</v>
       </c>
       <c r="H51" t="n">
         <v>0.94</v>
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>916.9</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>84476.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>151881</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
